--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/30/Output_22_33.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/30/Output_22_33.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>58445.19301751584</v>
+        <v>11516424.74865709</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>58445.19301751584</v>
+        <v>11516424.74865709</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>7556.196499158214</v>
+        <v>1010289.765164486</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7556.196499158214</v>
+        <v>1010289.765164486</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1419589516.998374</v>
+        <v>58111446.63626368</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>12318.86089402322</v>
+        <v>1373483.3636906</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>23308.0397392926</v>
+        <v>2538407.12599825</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>34297.21858456198</v>
+        <v>3703330.888305901</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>45740.27462878544</v>
+        <v>4805935.241210829</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>56761.16452394767</v>
+        <v>5970859.003518481</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>67781.32689469558</v>
+        <v>7135745.346995549</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>78801.76054573356</v>
+        <v>8300669.109303195</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>89822.19419677155</v>
+        <v>9465592.871610841</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>100952.9197814465</v>
+        <v>10572783.68878096</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>112056.2670569686</v>
+        <v>11746487.63216409</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>123076.7007080066</v>
+        <v>12911411.39447175</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>134097.1343590445</v>
+        <v>14076335.15677941</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>145117.5680100825</v>
+        <v>15241258.91908706</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>156248.2935947574</v>
+        <v>16348449.7362572</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>168669.2769490792</v>
+        <v>17270458.24768408</v>
       </c>
     </row>
   </sheetData>
@@ -27037,13 +27037,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E2" t="n">
         <v>335</v>
@@ -27058,7 +27058,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J2" t="n">
         <v>293</v>
@@ -27089,49 +27089,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
@@ -27144,16 +27144,16 @@
         <v>421</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
